--- a/Abergeldie/17735/ITC 015 - Pavements Rev0.xlsx
+++ b/Abergeldie/17735/ITC 015 - Pavements Rev0.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Abergeldie\17735\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBF1F9E-F342-4203-9520-4A8492691F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D21A2-AB96-4BDD-881A-A72F125C0697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="585" windowWidth="27555" windowHeight="19095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="1230" windowWidth="26595" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_ITC 12 - R11 and R16 Stormw" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'res_ITC 12 - R11 and R16 Stormw'!$A$1:$H$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'res_ITC 12 - R11 and R16 Stormw'!$A$1:$H$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>checklist</t>
+  </si>
+  <si>
+    <t>12 - CR – Survey Reports</t>
+  </si>
+  <si>
+    <t>• HOLD POINT: Submission of the following – Survey of completed pavement layer, Compaction and Moisture levels, Proof Roll records, Straight edge test records</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2292,11 +2298,11 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>13</v>
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2307,11 +2313,11 @@
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
+      <c r="A84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2326,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2337,6 +2343,12 @@
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2346,6 +2358,12 @@
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2355,6 +2373,12 @@
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -2364,6 +2388,12 @@
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -2373,6 +2403,12 @@
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2382,6 +2418,12 @@
       <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -2391,6 +2433,12 @@
       <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -2408,8 +2456,71 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H92" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
